--- a/iris.xlsx
+++ b/iris.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Test" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="4">
   <si>
     <t>10000</t>
   </si>
@@ -352,8 +353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E150"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="F107" sqref="A84:F107"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="I96" sqref="I96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2917,15 +2918,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>6</v>
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
       <c r="B1">
         <v>2.7</v>
@@ -3791,4 +3792,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>